--- a/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_expertise_reaction_GS.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_expertise_reaction_GS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\reli\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA80D740-3348-44E3-BA37-76840706E67D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{CA80D740-3348-44E3-BA37-76840706E67D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BAEA4502-924A-4E20-9A20-A02536EA1DCC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="14652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>verbales Störverhalten</t>
-  </si>
-  <si>
-    <t>Mangel an Lerneifer</t>
-  </si>
-  <si>
-    <t>motorische Unruhe</t>
-  </si>
-  <si>
-    <t>VP ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>whispering</t>
   </si>
@@ -70,6 +58,9 @@
   </si>
   <si>
     <t>clicking</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -132,19 +123,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -160,39 +142,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -507,198 +473,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>116</v>
-      </c>
-      <c r="B3" s="6">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="A3" s="8">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>4</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>120</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="A4" s="8">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5">
         <v>6</v>
       </c>
-      <c r="F4" s="7">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3</v>
-      </c>
-      <c r="I4" s="8">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2</v>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>213</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="A5" s="8">
+        <v>222</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>222</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="J5" s="7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
